--- a/Tableau/Chi Squarred Test.xlsx
+++ b/Tableau/Chi Squarred Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rissu\A_DataScience\Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EF4B88-D919-429B-A2C8-34C43702E19A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD42F4-935B-44EC-A4E4-4CA4877D07F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15012" yWindow="1008" windowWidth="17280" windowHeight="9420" xr2:uid="{4755E28A-9834-48D5-AC27-A9B460C7D0A6}"/>
+    <workbookView xWindow="5760" yWindow="1008" windowWidth="17280" windowHeight="9420" xr2:uid="{4755E28A-9834-48D5-AC27-A9B460C7D0A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Chi-Squarred Test</t>
   </si>
@@ -415,37 +415,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02DEFAD-C98C-4D25-BEC5-3B00098C533C}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -458,8 +468,20 @@
       <c r="E5">
         <v>5457</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5631</v>
+      </c>
+      <c r="I5">
+        <v>1424</v>
+      </c>
+      <c r="J5">
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -472,8 +494,20 @@
       <c r="E6">
         <v>4543</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>2332</v>
+      </c>
+      <c r="I6">
+        <v>613</v>
+      </c>
+      <c r="J6">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>7963</v>
       </c>
@@ -483,21 +517,39 @@
       <c r="E7">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>7963</v>
+      </c>
+      <c r="I7">
+        <v>2037</v>
+      </c>
+      <c r="J7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -513,8 +565,23 @@
         <f>SUM(C11,D11)</f>
         <v>5457</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <f>H$7/$E$7*$E5</f>
+        <v>4345.4090999999999</v>
+      </c>
+      <c r="I11">
+        <f>I$7/$E$7*$E5</f>
+        <v>1111.5908999999999</v>
+      </c>
+      <c r="J11">
+        <f>SUM(H11,I11)</f>
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -530,8 +597,23 @@
         <f>SUM(C12,D12)</f>
         <v>4543</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <f>H$7/$E$7*$E6</f>
+        <v>3617.5909000000001</v>
+      </c>
+      <c r="I12">
+        <f>I$7/$E$7*$E6</f>
+        <v>925.40909999999997</v>
+      </c>
+      <c r="J12">
+        <f>SUM(H12,I12)</f>
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>SUM(C11,C12)</f>
         <v>7963</v>
@@ -540,14 +622,29 @@
         <f>SUM(D11,D12)</f>
         <v>2037</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f>SUM(H11,H12)</f>
+        <v>7963</v>
+      </c>
+      <c r="I13">
+        <f>SUM(I11,I12)</f>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B15">
         <f>CHITEST(C5:D6,C11:D12)</f>
         <v>1.9672270576960575E-27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <f>CHITEST(H5:I6,H11:I12)</f>
+        <v>4.2708355764581265E-226</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau/Chi Squarred Test.xlsx
+++ b/Tableau/Chi Squarred Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rissu\A_DataScience\Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD42F4-935B-44EC-A4E4-4CA4877D07F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC32E220-E4F7-4CA8-BFCF-108EA1332C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="1008" windowWidth="17280" windowHeight="9420" xr2:uid="{4755E28A-9834-48D5-AC27-A9B460C7D0A6}"/>
   </bookViews>
@@ -415,47 +415,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02DEFAD-C98C-4D25-BEC5-3B00098C533C}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -468,20 +468,20 @@
       <c r="E5">
         <v>5457</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5631</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1424</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>5457</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -494,20 +494,20 @@
       <c r="E6">
         <v>4543</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2332</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>613</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4543</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>7963</v>
       </c>
@@ -517,39 +517,39 @@
       <c r="E7">
         <v>10000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7963</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2037</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -565,23 +565,23 @@
         <f>SUM(C11,D11)</f>
         <v>5457</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H11">
-        <f>H$7/$E$7*$E5</f>
-        <v>4345.4090999999999</v>
       </c>
       <c r="I11">
         <f>I$7/$E$7*$E5</f>
+        <v>4345.4090999999999</v>
+      </c>
+      <c r="J11">
+        <f>J$7/$E$7*$E5</f>
         <v>1111.5908999999999</v>
       </c>
-      <c r="J11">
-        <f>SUM(H11,I11)</f>
+      <c r="K11">
+        <f>SUM(I11,J11)</f>
         <v>5457</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -597,23 +597,23 @@
         <f>SUM(C12,D12)</f>
         <v>4543</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H12">
-        <f>H$7/$E$7*$E6</f>
-        <v>3617.5909000000001</v>
       </c>
       <c r="I12">
         <f>I$7/$E$7*$E6</f>
+        <v>3617.5909000000001</v>
+      </c>
+      <c r="J12">
+        <f>J$7/$E$7*$E6</f>
         <v>925.40909999999997</v>
       </c>
-      <c r="J12">
-        <f>SUM(H12,I12)</f>
+      <c r="K12">
+        <f>SUM(I12,J12)</f>
         <v>4543</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>SUM(C11,C12)</f>
         <v>7963</v>
@@ -622,16 +622,16 @@
         <f>SUM(D11,D12)</f>
         <v>2037</v>
       </c>
-      <c r="H13">
-        <f>SUM(H11,H12)</f>
-        <v>7963</v>
-      </c>
       <c r="I13">
         <f>SUM(I11,I12)</f>
+        <v>7963</v>
+      </c>
+      <c r="J13">
+        <f>SUM(J11,J12)</f>
         <v>2037</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -639,11 +639,11 @@
         <f>CHITEST(C5:D6,C11:D12)</f>
         <v>1.9672270576960575E-27</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15">
-        <f>CHITEST(H5:I6,H11:I12)</f>
+      <c r="H15">
+        <f>CHITEST(I5:J6,I11:J12)</f>
         <v>4.2708355764581265E-226</v>
       </c>
     </row>
